--- a/TaskWhilePolinomTest.xlsx
+++ b/TaskWhilePolinomTest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Николаев Вячеслав\Desktop\4 курс материалы\ЛЭТИ\Программирование с++\Code\Task2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Николаев Вячеслав\Desktop\4 курс материалы\ЛЭТИ\Программирование с++\Code\Лабораторная №2\Task2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2229,7 +2229,7 @@
   <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2328,11 +2328,11 @@
         <v>1</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P50" si="3" xml:space="preserve"> ((-1)^O3 * (($D$2^(2*O3+1))/ (FACT(2*O3 + 1))))</f>
+        <f xml:space="preserve"> ((-1)^O3 * (($D$2^(2*O3+1))/ (FACT(2*O3 + 1))))</f>
         <v>-1098.6328125</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q50" si="4">P3 + IF(Q2 = "s", 0, Q2)</f>
+        <f t="shared" ref="Q3:Q50" si="3">P3 + IF(Q2 = "s", 0, Q2)</f>
         <v>-1079.8828125</v>
       </c>
       <c r="R3">
@@ -2348,7 +2348,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B50" si="5" xml:space="preserve"> ((-1 * $D$2^2) /( ((2*A3 + 3)*(2*A3+2))) )* B3</f>
+        <f t="shared" ref="B4:B50" si="4" xml:space="preserve"> ((-1 * $D$2^2) /( ((2*A3 + 3)*(2*A3+2))) )* B3</f>
         <v>19311.904907226563</v>
       </c>
       <c r="C4">
@@ -2366,11 +2366,11 @@
         <v>2</v>
       </c>
       <c r="P4">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="P3:P50" si="5" xml:space="preserve"> ((-1)^O4 * (($D$2^(2*O4+1))/ (FACT(2*O4 + 1))))</f>
         <v>19311.904907226563</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>18232.022094726563</v>
       </c>
       <c r="R4">
@@ -2386,7 +2386,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-161650.98973682948</v>
       </c>
       <c r="C5">
@@ -2404,11 +2404,11 @@
         <v>3</v>
       </c>
       <c r="P5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-161650.98973682948</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-143418.96764210291</v>
       </c>
       <c r="R5">
@@ -2424,7 +2424,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>789311.47332436265</v>
       </c>
       <c r="C6">
@@ -2442,11 +2442,11 @@
         <v>4</v>
       </c>
       <c r="P6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>789311.47332436277</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>645892.5056822598</v>
       </c>
       <c r="R6">
@@ -2462,7 +2462,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-2522657.4076417838</v>
       </c>
       <c r="C7">
@@ -2480,11 +2480,11 @@
         <v>5</v>
       </c>
       <c r="P7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2522657.4076417843</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-1876764.9019595245</v>
       </c>
       <c r="R7">
@@ -2500,7 +2500,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5685075.2876542602</v>
       </c>
       <c r="C8">
@@ -2518,11 +2518,11 @@
         <v>6</v>
       </c>
       <c r="P8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5685075.2876542611</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3808310.3856947366</v>
       </c>
       <c r="R8">
@@ -2538,7 +2538,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-9517425.1467426233</v>
       </c>
       <c r="C9">
@@ -2556,11 +2556,11 @@
         <v>7</v>
       </c>
       <c r="P9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-9517425.1467426252</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-5709114.7610478885</v>
       </c>
       <c r="R9">
@@ -2576,7 +2576,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>12301359.47849891</v>
       </c>
       <c r="C10">
@@ -2594,11 +2594,11 @@
         <v>8</v>
       </c>
       <c r="P10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12301359.478498913</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6592244.7174510248</v>
       </c>
       <c r="R10">
@@ -2614,7 +2614,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-12645311.963917464</v>
       </c>
       <c r="C11">
@@ -2632,11 +2632,11 @@
         <v>9</v>
       </c>
       <c r="P11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-12645311.963917468</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-6053067.2464664429</v>
       </c>
       <c r="R11">
@@ -2652,7 +2652,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10584803.541225556</v>
       </c>
       <c r="C12">
@@ -2670,11 +2670,11 @@
         <v>10</v>
       </c>
       <c r="P12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10584803.541225558</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4531736.2947591152</v>
       </c>
       <c r="R12">
@@ -2690,7 +2690,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-7354189.7133638533</v>
       </c>
       <c r="C13">
@@ -2708,11 +2708,11 @@
         <v>11</v>
       </c>
       <c r="P13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-7354189.7133638542</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-2822453.418604739</v>
       </c>
       <c r="R13">
@@ -2728,7 +2728,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4309095.5351741323</v>
       </c>
       <c r="C14">
@@ -2746,11 +2746,11 @@
         <v>12</v>
       </c>
       <c r="P14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4309095.5351741342</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1486642.1165693952</v>
       </c>
       <c r="R14">
@@ -2766,7 +2766,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-2158000.5684966608</v>
       </c>
       <c r="C15">
@@ -2784,11 +2784,11 @@
         <v>13</v>
       </c>
       <c r="P15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2158000.5684966617</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-671358.45192726655</v>
       </c>
       <c r="R15">
@@ -2804,7 +2804,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>934325.21534742287</v>
       </c>
       <c r="C16">
@@ -2822,11 +2822,11 @@
         <v>14</v>
       </c>
       <c r="P16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>934325.2153474231</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>262966.76342015655</v>
       </c>
       <c r="R16">
@@ -2842,7 +2842,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-353197.53604363266</v>
       </c>
       <c r="C17">
@@ -2860,11 +2860,11 @@
         <v>15</v>
       </c>
       <c r="P17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-353197.53604363272</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-90230.772623476165</v>
       </c>
       <c r="R17">
@@ -2880,7 +2880,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>117586.18254293525</v>
       </c>
       <c r="C18">
@@ -2891,11 +2891,11 @@
         <v>16</v>
       </c>
       <c r="P18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>117586.18254293522</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27355.409919459053</v>
       </c>
       <c r="R18">
@@ -2911,7 +2911,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-34738.564958193841</v>
       </c>
       <c r="C19">
@@ -2922,11 +2922,11 @@
         <v>17</v>
       </c>
       <c r="P19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-34738.564958193849</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-7383.1550387347961</v>
       </c>
       <c r="R19">
@@ -2942,7 +2942,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9168.7513086449108</v>
       </c>
       <c r="C20">
@@ -2953,11 +2953,11 @@
         <v>18</v>
       </c>
       <c r="P20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9168.7513086449126</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1785.5962699101165</v>
       </c>
       <c r="R20">
@@ -2973,7 +2973,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-2175.026404821509</v>
       </c>
       <c r="C21">
@@ -2984,11 +2984,11 @@
         <v>19</v>
       </c>
       <c r="P21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2175.026404821509</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-389.43013491139254</v>
       </c>
       <c r="R21">
@@ -3004,7 +3004,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>466.25470758845228</v>
       </c>
       <c r="C22">
@@ -3015,11 +3015,11 @@
         <v>20</v>
       </c>
       <c r="P22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>466.25470758845256</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>76.824572677060019</v>
       </c>
       <c r="R22">
@@ -3035,7 +3035,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-90.762829809836802</v>
       </c>
       <c r="C23">
@@ -3046,11 +3046,11 @@
         <v>21</v>
       </c>
       <c r="P23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-90.762829809836802</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-13.938257132776783</v>
       </c>
       <c r="R23">
@@ -3066,7 +3066,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>16.115559270212501</v>
       </c>
       <c r="C24">
@@ -3077,11 +3077,11 @@
         <v>22</v>
       </c>
       <c r="P24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.115559270212501</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.1773021374357171</v>
       </c>
       <c r="R24">
@@ -3097,7 +3097,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-2.6205487076475866</v>
       </c>
       <c r="C25">
@@ -3108,11 +3108,11 @@
         <v>23</v>
       </c>
       <c r="P25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2.6205487076475857</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-0.44324657021186864</v>
       </c>
       <c r="R25">
@@ -3128,7 +3128,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.39170350979266777</v>
       </c>
       <c r="C26">
@@ -3139,11 +3139,11 @@
         <v>24</v>
       </c>
       <c r="P26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.39170350979266766</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-5.1543060419200981E-2</v>
       </c>
       <c r="R26">
@@ -3159,7 +3159,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-5.4003241239797953E-2</v>
       </c>
       <c r="C27">
@@ -3170,11 +3170,11 @@
         <v>25</v>
       </c>
       <c r="P27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-5.4003241239797974E-2</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-0.10554630165899895</v>
       </c>
       <c r="R27">
@@ -3190,7 +3190,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.8887933593492264E-3</v>
       </c>
       <c r="C28">
@@ -3201,11 +3201,11 @@
         <v>26</v>
       </c>
       <c r="P28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.888793359349229E-3</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-9.8657508299649713E-2</v>
       </c>
       <c r="R28">
@@ -3221,7 +3221,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-8.1543481999872471E-4</v>
       </c>
       <c r="C29">
@@ -3232,11 +3232,11 @@
         <v>27</v>
       </c>
       <c r="P29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-8.1543481999872558E-4</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-9.9472943119648438E-2</v>
       </c>
       <c r="R29">
@@ -3252,7 +3252,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.9810872150940371E-5</v>
       </c>
       <c r="C30">
@@ -3263,11 +3263,11 @@
         <v>28</v>
       </c>
       <c r="P30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.9810872150940357E-5</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-9.9383132247497494E-2</v>
       </c>
       <c r="R30">
@@ -3283,7 +3283,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-9.2268073467460476E-6</v>
       </c>
       <c r="C31">
@@ -3294,11 +3294,11 @@
         <v>29</v>
       </c>
       <c r="P31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-9.226807346746051E-6</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-9.939235905484424E-2</v>
       </c>
       <c r="R31">
@@ -3314,7 +3314,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.862840048744282E-7</v>
       </c>
       <c r="C32">
@@ -3325,11 +3325,11 @@
         <v>30</v>
       </c>
       <c r="P32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.8628400487442852E-7</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-9.9391472770839359E-2</v>
       </c>
       <c r="R32">
@@ -3345,7 +3345,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-7.9770665761307253E-8</v>
       </c>
       <c r="C33">
@@ -3356,11 +3356,11 @@
         <v>31</v>
       </c>
       <c r="P33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-7.9770665761307293E-8</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-9.9391552541505127E-2</v>
       </c>
       <c r="R33">
@@ -3376,7 +3376,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.7414362215648027E-9</v>
       </c>
       <c r="C34">
@@ -3387,11 +3387,11 @@
         <v>32</v>
       </c>
       <c r="P34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.7414362215648036E-9</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-9.9391545800068912E-2</v>
       </c>
       <c r="R34">
@@ -3407,7 +3407,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-5.3596476066121115E-10</v>
       </c>
       <c r="C35">
@@ -3418,11 +3418,11 @@
         <v>33</v>
       </c>
       <c r="P35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-5.3596476066121105E-10</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-9.939154633603367E-2</v>
       </c>
       <c r="R35">
@@ -3438,7 +3438,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.0158804597177545E-11</v>
       </c>
       <c r="C36">
@@ -3449,11 +3449,11 @@
         <v>34</v>
       </c>
       <c r="P36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.0158804597177571E-11</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-9.9391546295874864E-2</v>
       </c>
       <c r="R36">
@@ -3469,7 +3469,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-2.8407102094960222E-12</v>
       </c>
       <c r="C37">
@@ -3480,11 +3480,11 @@
         <v>35</v>
       </c>
       <c r="P37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2.8407102094960226E-12</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-9.9391546298715577E-2</v>
       </c>
       <c r="R37">
@@ -3500,7 +3500,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.9000897698362733E-13</v>
       </c>
       <c r="C38">
@@ -3511,11 +3511,11 @@
         <v>36</v>
       </c>
       <c r="P38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.9000897698362735E-13</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-9.9391546298525563E-2</v>
       </c>
       <c r="R38">
@@ -3531,7 +3531,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-1.203604161636153E-14</v>
       </c>
       <c r="C39">
@@ -3542,11 +3542,11 @@
         <v>37</v>
       </c>
       <c r="P39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.203604161636153E-14</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-9.9391546298537595E-2</v>
       </c>
       <c r="R39">
@@ -3562,7 +3562,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.2307260436638767E-16</v>
       </c>
       <c r="C40">
@@ -3573,11 +3573,11 @@
         <v>38</v>
       </c>
       <c r="P40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.2307260436638767E-16</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-9.9391546298536873E-2</v>
       </c>
       <c r="R40">
@@ -3593,7 +3593,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-4.1253685892982497E-17</v>
       </c>
       <c r="C41">
@@ -3604,11 +3604,11 @@
         <v>39</v>
       </c>
       <c r="P41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-4.125368589298249E-17</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-9.9391546298536915E-2</v>
       </c>
       <c r="R41">
@@ -3624,7 +3624,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.2381557016592067E-18</v>
       </c>
       <c r="C42">
@@ -3635,11 +3635,11 @@
         <v>40</v>
       </c>
       <c r="P42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.2381557016592071E-18</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-9.9391546298536915E-2</v>
       </c>
       <c r="R42">
@@ -3655,7 +3655,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-1.1561146251315971E-19</v>
       </c>
       <c r="C43">
@@ -3666,11 +3666,11 @@
         <v>41</v>
       </c>
       <c r="P43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.1561146251315968E-19</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-9.9391546298536915E-2</v>
       </c>
       <c r="R43">
@@ -3686,7 +3686,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.6925286820423963E-21</v>
       </c>
       <c r="C44">
@@ -3697,11 +3697,11 @@
         <v>42</v>
       </c>
       <c r="P44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.6925286820423993E-21</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-9.9391546298536915E-2</v>
       </c>
       <c r="R44">
@@ -3717,7 +3717,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-2.6747923212784415E-22</v>
       </c>
       <c r="C45">
@@ -3728,11 +3728,11 @@
         <v>43</v>
       </c>
       <c r="P45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2.6747923212784429E-22</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-9.9391546298536915E-2</v>
       </c>
       <c r="R45">
@@ -3748,7 +3748,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.2006596979691676E-23</v>
       </c>
       <c r="C46">
@@ -3759,11 +3759,11 @@
         <v>44</v>
       </c>
       <c r="P46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2006596979691676E-23</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-9.9391546298536915E-2</v>
       </c>
       <c r="R46">
@@ -3779,7 +3779,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-5.153930709002265E-25</v>
       </c>
       <c r="C47">
@@ -3790,11 +3790,11 @@
         <v>45</v>
       </c>
       <c r="P47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-5.153930709002264E-25</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-9.9391546298536915E-2</v>
       </c>
       <c r="R47">
@@ -3810,7 +3810,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.1177288042117913E-26</v>
       </c>
       <c r="C48">
@@ -3821,11 +3821,11 @@
         <v>46</v>
       </c>
       <c r="P48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.1177288042117924E-26</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-9.9391546298536915E-2</v>
       </c>
       <c r="R48">
@@ -3841,7 +3841,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-8.3372232108701876E-28</v>
       </c>
       <c r="C49">
@@ -3852,11 +3852,11 @@
         <v>47</v>
       </c>
       <c r="P49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-8.3372232108701893E-28</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-9.9391546298536915E-2</v>
       </c>
       <c r="R49">
@@ -3872,7 +3872,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.1476106476283829E-29</v>
       </c>
       <c r="C50">
@@ -3883,11 +3883,11 @@
         <v>48</v>
       </c>
       <c r="P50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.1476106476283829E-29</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-9.9391546298536915E-2</v>
       </c>
       <c r="R50">
